--- a/yabuki/database/orang/riri/exel_boomber_riri/F2 Riri Database Notel [Kenal Nama].xlsx
+++ b/yabuki/database/orang/riri/exel_boomber_riri/F2 Riri Database Notel [Kenal Nama].xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ucup_d\yabuki\database\orang\riri\exel_boomber_riri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA1652F-00C0-40DD-A5D7-2423A88005F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1AC341-7FC7-472D-8460-C477C10A1EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="12660" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="12660" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="747">
   <si>
     <t>Keterangan</t>
   </si>
@@ -1657,9 +1655,6 @@
     <t>+62 857-2512-7631</t>
   </si>
   <si>
-    <t>Bapak sukinan</t>
-  </si>
-  <si>
     <t>+62 857-2512-7661</t>
   </si>
   <si>
@@ -2219,6 +2214,66 @@
   </si>
   <si>
     <t>Mas dian</t>
+  </si>
+  <si>
+    <t>Bapak sukiran</t>
+  </si>
+  <si>
+    <t>Ibu Isma</t>
+  </si>
+  <si>
+    <t>+62 857-2311-4153</t>
+  </si>
+  <si>
+    <t>Ibu Haryanti</t>
+  </si>
+  <si>
+    <t>Ibu Nina</t>
+  </si>
+  <si>
+    <t>+62 817-2310-934</t>
+  </si>
+  <si>
+    <t>Ibu Asti</t>
+  </si>
+  <si>
+    <t>+62 857-2319-7770</t>
+  </si>
+  <si>
+    <t>Ibu Sonia</t>
+  </si>
+  <si>
+    <t>+62 857-2319-1768</t>
+  </si>
+  <si>
+    <t>Ibu Ai</t>
+  </si>
+  <si>
+    <t>+62 857-2318-9654</t>
+  </si>
+  <si>
+    <t>Ibu Dayah</t>
+  </si>
+  <si>
+    <t>+62 856-4337-6559</t>
+  </si>
+  <si>
+    <t>Ibu Yeti</t>
+  </si>
+  <si>
+    <t>+62 857-2311-3395</t>
+  </si>
+  <si>
+    <t>Bapak Jumadi</t>
+  </si>
+  <si>
+    <t>+62 817-2301-323</t>
+  </si>
+  <si>
+    <t>Bapak Nandang</t>
+  </si>
+  <si>
+    <t>+62 817-2302-608</t>
   </si>
 </sst>
 </file>
@@ -2292,7 +2347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2338,6 +2393,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2599,8 +2658,8 @@
   </sheetPr>
   <dimension ref="A1:G947"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="E370" sqref="E370"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="D398" sqref="D398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5538,7 +5597,7 @@
         <v>333</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -7450,7 +7509,7 @@
         <v>539</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>540</v>
+        <v>727</v>
       </c>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
@@ -7464,10 +7523,10 @@
         <v>44646</v>
       </c>
       <c r="C292" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="D292" s="8" t="s">
         <v>541</v>
-      </c>
-      <c r="D292" s="8" t="s">
-        <v>542</v>
       </c>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
@@ -7480,10 +7539,10 @@
         <v>44646</v>
       </c>
       <c r="C293" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D293" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="D293" s="8" t="s">
-        <v>544</v>
       </c>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
@@ -7496,10 +7555,10 @@
         <v>44646</v>
       </c>
       <c r="C294" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="D294" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
@@ -7513,7 +7572,7 @@
         <v>44646</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D295" s="8" t="s">
         <v>450</v>
@@ -7529,10 +7588,10 @@
         <v>44646</v>
       </c>
       <c r="C296" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="D296" s="6" t="s">
         <v>548</v>
-      </c>
-      <c r="D296" s="6" t="s">
-        <v>549</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
@@ -7546,10 +7605,10 @@
         <v>44655</v>
       </c>
       <c r="C297" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D297" s="8" t="s">
         <v>636</v>
-      </c>
-      <c r="D297" s="8" t="s">
-        <v>637</v>
       </c>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
@@ -7562,10 +7621,10 @@
         <v>44655</v>
       </c>
       <c r="C298" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="D298" s="8" t="s">
         <v>638</v>
-      </c>
-      <c r="D298" s="8" t="s">
-        <v>639</v>
       </c>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
@@ -7579,7 +7638,7 @@
         <v>44655</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D299" s="8" t="s">
         <v>470</v>
@@ -7595,10 +7654,10 @@
         <v>44656</v>
       </c>
       <c r="C300" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="D300" s="8" t="s">
         <v>641</v>
-      </c>
-      <c r="D300" s="8" t="s">
-        <v>642</v>
       </c>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
@@ -7612,7 +7671,7 @@
         <v>44656</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D301" s="8" t="s">
         <v>470</v>
@@ -7628,10 +7687,10 @@
         <v>44656</v>
       </c>
       <c r="C302" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D302" s="8" t="s">
         <v>644</v>
-      </c>
-      <c r="D302" s="8" t="s">
-        <v>645</v>
       </c>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
@@ -7645,10 +7704,10 @@
         <v>44656</v>
       </c>
       <c r="C303" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D303" s="8" t="s">
         <v>646</v>
-      </c>
-      <c r="D303" s="8" t="s">
-        <v>647</v>
       </c>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
@@ -7661,7 +7720,7 @@
         <v>44656</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D304" s="8" t="s">
         <v>470</v>
@@ -7678,10 +7737,10 @@
         <v>44656</v>
       </c>
       <c r="C305" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D305" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="D305" s="8" t="s">
-        <v>650</v>
       </c>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
@@ -7694,10 +7753,10 @@
         <v>44657</v>
       </c>
       <c r="C306" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="D306" s="8" t="s">
         <v>651</v>
-      </c>
-      <c r="D306" s="8" t="s">
-        <v>652</v>
       </c>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
@@ -7711,7 +7770,7 @@
         <v>44657</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D307" s="8" t="s">
         <v>470</v>
@@ -7727,10 +7786,10 @@
         <v>44657</v>
       </c>
       <c r="C308" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D308" s="8" t="s">
         <v>654</v>
-      </c>
-      <c r="D308" s="8" t="s">
-        <v>655</v>
       </c>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
@@ -7743,10 +7802,10 @@
         <v>44657</v>
       </c>
       <c r="C309" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D309" s="8" t="s">
         <v>656</v>
-      </c>
-      <c r="D309" s="8" t="s">
-        <v>657</v>
       </c>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
@@ -7760,10 +7819,10 @@
         <v>44657</v>
       </c>
       <c r="C310" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D310" s="8" t="s">
         <v>658</v>
-      </c>
-      <c r="D310" s="8" t="s">
-        <v>659</v>
       </c>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
@@ -7776,10 +7835,10 @@
         <v>44657</v>
       </c>
       <c r="C311" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D311" s="8" t="s">
         <v>660</v>
-      </c>
-      <c r="D311" s="8" t="s">
-        <v>661</v>
       </c>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
@@ -7793,10 +7852,10 @@
         <v>44657</v>
       </c>
       <c r="C312" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="D312" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="D312" s="8" t="s">
-        <v>663</v>
       </c>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
@@ -7809,10 +7868,10 @@
         <v>44657</v>
       </c>
       <c r="C313" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="D313" s="8" t="s">
         <v>664</v>
-      </c>
-      <c r="D313" s="8" t="s">
-        <v>665</v>
       </c>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
@@ -7826,10 +7885,10 @@
         <v>44657</v>
       </c>
       <c r="C314" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D314" s="8" t="s">
         <v>666</v>
-      </c>
-      <c r="D314" s="8" t="s">
-        <v>667</v>
       </c>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
@@ -7842,7 +7901,7 @@
         <v>44657</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D315" s="8" t="s">
         <v>470</v>
@@ -7859,10 +7918,10 @@
         <v>44657</v>
       </c>
       <c r="C316" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="D316" s="8" t="s">
         <v>669</v>
-      </c>
-      <c r="D316" s="8" t="s">
-        <v>670</v>
       </c>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
@@ -7875,10 +7934,10 @@
         <v>44657</v>
       </c>
       <c r="C317" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="D317" s="8" t="s">
         <v>671</v>
-      </c>
-      <c r="D317" s="8" t="s">
-        <v>672</v>
       </c>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
@@ -7892,7 +7951,7 @@
         <v>44662</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D318" s="8" t="s">
         <v>470</v>
@@ -7908,7 +7967,7 @@
         <v>44662</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>470</v>
@@ -7925,10 +7984,10 @@
         <v>44662</v>
       </c>
       <c r="C320" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D320" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="D320" s="8" t="s">
-        <v>554</v>
       </c>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
@@ -7941,10 +8000,10 @@
         <v>44664</v>
       </c>
       <c r="C321" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="D321" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="D321" s="6" t="s">
-        <v>556</v>
       </c>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
@@ -7958,7 +8017,7 @@
         <v>44664</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D322" s="8" t="s">
         <v>470</v>
@@ -7974,7 +8033,7 @@
         <v>44664</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>470</v>
@@ -7991,10 +8050,10 @@
         <v>44664</v>
       </c>
       <c r="C324" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="D324" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="D324" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
@@ -8007,10 +8066,10 @@
         <v>44664</v>
       </c>
       <c r="C325" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D325" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="D325" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
@@ -8024,10 +8083,10 @@
         <v>44664</v>
       </c>
       <c r="C326" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="D326" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="D326" s="8" t="s">
-        <v>564</v>
       </c>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
@@ -8040,10 +8099,10 @@
         <v>44664</v>
       </c>
       <c r="C327" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="D327" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="D327" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
@@ -8057,10 +8116,10 @@
         <v>44664</v>
       </c>
       <c r="C328" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D328" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="D328" s="8" t="s">
-        <v>568</v>
       </c>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
@@ -8090,7 +8149,7 @@
         <v>44665</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>113</v>
@@ -8106,7 +8165,7 @@
         <v>44665</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D331" s="8" t="s">
         <v>534</v>
@@ -8123,7 +8182,7 @@
         <v>44665</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>113</v>
@@ -8139,10 +8198,10 @@
         <v>44665</v>
       </c>
       <c r="C333" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="D333" s="8" t="s">
         <v>572</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>573</v>
       </c>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
@@ -8156,10 +8215,10 @@
         <v>44665</v>
       </c>
       <c r="C334" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="D334" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="D334" s="6" t="s">
-        <v>575</v>
       </c>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
@@ -8172,10 +8231,10 @@
         <v>44665</v>
       </c>
       <c r="C335" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="D335" s="8" t="s">
         <v>576</v>
-      </c>
-      <c r="D335" s="8" t="s">
-        <v>577</v>
       </c>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
@@ -8189,10 +8248,10 @@
         <v>44665</v>
       </c>
       <c r="C336" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="D336" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="D336" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
@@ -8205,10 +8264,10 @@
         <v>44665</v>
       </c>
       <c r="C337" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="D337" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="D337" s="8" t="s">
-        <v>581</v>
       </c>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
@@ -8222,10 +8281,10 @@
         <v>44665</v>
       </c>
       <c r="C338" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D338" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="D338" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
@@ -8238,10 +8297,10 @@
         <v>44665</v>
       </c>
       <c r="C339" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="D339" s="8" t="s">
         <v>584</v>
-      </c>
-      <c r="D339" s="8" t="s">
-        <v>585</v>
       </c>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
@@ -8255,7 +8314,7 @@
         <v>44667</v>
       </c>
       <c r="C340" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>42</v>
@@ -8271,7 +8330,7 @@
         <v>44667</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D341" s="8" t="s">
         <v>113</v>
@@ -8288,10 +8347,10 @@
         <v>44667</v>
       </c>
       <c r="C342" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D342" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="D342" s="6" t="s">
-        <v>589</v>
       </c>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
@@ -8304,10 +8363,10 @@
         <v>44667</v>
       </c>
       <c r="C343" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="D343" s="8" t="s">
         <v>590</v>
-      </c>
-      <c r="D343" s="8" t="s">
-        <v>591</v>
       </c>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
@@ -8321,10 +8380,10 @@
         <v>44667</v>
       </c>
       <c r="C344" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="D344" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="D344" s="6" t="s">
-        <v>593</v>
       </c>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
@@ -8337,10 +8396,10 @@
         <v>44667</v>
       </c>
       <c r="C345" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="D345" s="8" t="s">
         <v>594</v>
-      </c>
-      <c r="D345" s="8" t="s">
-        <v>595</v>
       </c>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
@@ -8354,7 +8413,7 @@
         <v>44671</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>470</v>
@@ -8370,10 +8429,10 @@
         <v>44671</v>
       </c>
       <c r="C347" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="D347" s="8" t="s">
         <v>597</v>
-      </c>
-      <c r="D347" s="8" t="s">
-        <v>598</v>
       </c>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
@@ -8387,10 +8446,10 @@
         <v>44671</v>
       </c>
       <c r="C348" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="D348" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="D348" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
@@ -8403,10 +8462,10 @@
         <v>44673</v>
       </c>
       <c r="C349" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="D349" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="D349" s="8" t="s">
-        <v>602</v>
       </c>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
@@ -8420,10 +8479,10 @@
         <v>44673</v>
       </c>
       <c r="C350" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D350" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="D350" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
@@ -8436,10 +8495,10 @@
         <v>44673</v>
       </c>
       <c r="C351" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="D351" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="D351" s="8" t="s">
-        <v>606</v>
       </c>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
@@ -8453,10 +8512,10 @@
         <v>44673</v>
       </c>
       <c r="C352" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D352" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
@@ -8469,10 +8528,10 @@
         <v>44673</v>
       </c>
       <c r="C353" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="D353" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="D353" s="8" t="s">
-        <v>610</v>
       </c>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
@@ -8486,10 +8545,10 @@
         <v>44673</v>
       </c>
       <c r="C354" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D354" s="6" t="s">
         <v>611</v>
-      </c>
-      <c r="D354" s="6" t="s">
-        <v>612</v>
       </c>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
@@ -8502,10 +8561,10 @@
         <v>44673</v>
       </c>
       <c r="C355" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="D355" s="8" t="s">
         <v>613</v>
-      </c>
-      <c r="D355" s="8" t="s">
-        <v>614</v>
       </c>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
@@ -8519,7 +8578,7 @@
         <v>44673</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>448</v>
@@ -8535,10 +8594,10 @@
         <v>44673</v>
       </c>
       <c r="C357" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D357" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="D357" s="8" t="s">
-        <v>617</v>
       </c>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
@@ -8552,10 +8611,10 @@
         <v>44677</v>
       </c>
       <c r="C358" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="D358" s="6" t="s">
         <v>618</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>619</v>
       </c>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
@@ -8568,7 +8627,7 @@
         <v>44677</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D359" s="8" t="s">
         <v>113</v>
@@ -8585,10 +8644,10 @@
         <v>44677</v>
       </c>
       <c r="C360" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D360" s="6" t="s">
         <v>621</v>
-      </c>
-      <c r="D360" s="6" t="s">
-        <v>622</v>
       </c>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
@@ -8601,7 +8660,7 @@
         <v>44677</v>
       </c>
       <c r="C361" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D361" s="8" t="s">
         <v>147</v>
@@ -8618,10 +8677,10 @@
         <v>44677</v>
       </c>
       <c r="C362" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="D362" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>625</v>
       </c>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
@@ -8634,7 +8693,7 @@
         <v>44678</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D363" s="8" t="s">
         <v>470</v>
@@ -8651,10 +8710,10 @@
         <v>44678</v>
       </c>
       <c r="C364" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="D364" s="6" t="s">
         <v>627</v>
-      </c>
-      <c r="D364" s="6" t="s">
-        <v>628</v>
       </c>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
@@ -8667,10 +8726,10 @@
         <v>44678</v>
       </c>
       <c r="C365" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="D365" s="8" t="s">
         <v>629</v>
-      </c>
-      <c r="D365" s="8" t="s">
-        <v>630</v>
       </c>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
@@ -8684,7 +8743,7 @@
         <v>44678</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>470</v>
@@ -8700,10 +8759,10 @@
         <v>44678</v>
       </c>
       <c r="C367" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="D367" s="8" t="s">
         <v>632</v>
-      </c>
-      <c r="D367" s="8" t="s">
-        <v>633</v>
       </c>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
@@ -8717,10 +8776,10 @@
         <v>44678</v>
       </c>
       <c r="C368" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="D368" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="D368" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
@@ -8733,7 +8792,7 @@
         <v>44690</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D369" s="5" t="s">
         <v>113</v>
@@ -8750,7 +8809,7 @@
         <v>44690</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D370" s="8" t="s">
         <v>113</v>
@@ -8766,10 +8825,10 @@
         <v>44691</v>
       </c>
       <c r="C371" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="D371" s="8" t="s">
         <v>675</v>
-      </c>
-      <c r="D371" s="8" t="s">
-        <v>676</v>
       </c>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
@@ -8783,10 +8842,10 @@
         <v>44691</v>
       </c>
       <c r="C372" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="D372" s="8" t="s">
         <v>677</v>
-      </c>
-      <c r="D372" s="8" t="s">
-        <v>678</v>
       </c>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
@@ -8799,10 +8858,10 @@
         <v>44691</v>
       </c>
       <c r="C373" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="D373" s="8" t="s">
         <v>679</v>
-      </c>
-      <c r="D373" s="8" t="s">
-        <v>680</v>
       </c>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
@@ -8816,10 +8875,10 @@
         <v>44691</v>
       </c>
       <c r="C374" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="D374" s="8" t="s">
         <v>681</v>
-      </c>
-      <c r="D374" s="8" t="s">
-        <v>682</v>
       </c>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
@@ -8832,7 +8891,7 @@
         <v>44691</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D375" s="8" t="s">
         <v>113</v>
@@ -8849,10 +8908,10 @@
         <v>44691</v>
       </c>
       <c r="C376" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="D376" s="8" t="s">
         <v>684</v>
-      </c>
-      <c r="D376" s="8" t="s">
-        <v>685</v>
       </c>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
@@ -8865,10 +8924,10 @@
         <v>44691</v>
       </c>
       <c r="C377" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="D377" s="8" t="s">
         <v>686</v>
-      </c>
-      <c r="D377" s="8" t="s">
-        <v>687</v>
       </c>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
@@ -8882,10 +8941,10 @@
         <v>44692</v>
       </c>
       <c r="C378" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="D378" s="8" t="s">
         <v>688</v>
-      </c>
-      <c r="D378" s="8" t="s">
-        <v>689</v>
       </c>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
@@ -8898,10 +8957,10 @@
         <v>44692</v>
       </c>
       <c r="C379" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="D379" s="8" t="s">
         <v>690</v>
-      </c>
-      <c r="D379" s="8" t="s">
-        <v>691</v>
       </c>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
@@ -8915,7 +8974,7 @@
         <v>44692</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D380" s="8" t="s">
         <v>113</v>
@@ -8931,10 +8990,10 @@
         <v>44692</v>
       </c>
       <c r="C381" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D381" s="8" t="s">
         <v>693</v>
-      </c>
-      <c r="D381" s="8" t="s">
-        <v>694</v>
       </c>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
@@ -8948,10 +9007,10 @@
         <v>44695</v>
       </c>
       <c r="C382" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="D382" s="8" t="s">
         <v>695</v>
-      </c>
-      <c r="D382" s="8" t="s">
-        <v>696</v>
       </c>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
@@ -8964,10 +9023,10 @@
         <v>44695</v>
       </c>
       <c r="C383" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="D383" s="8" t="s">
         <v>697</v>
-      </c>
-      <c r="D383" s="8" t="s">
-        <v>698</v>
       </c>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
@@ -8981,10 +9040,10 @@
         <v>44704</v>
       </c>
       <c r="C384" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="D384" s="8" t="s">
         <v>699</v>
-      </c>
-      <c r="D384" s="8" t="s">
-        <v>700</v>
       </c>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
@@ -8997,10 +9056,10 @@
         <v>44704</v>
       </c>
       <c r="C385" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D385" s="8" t="s">
         <v>701</v>
-      </c>
-      <c r="D385" s="8" t="s">
-        <v>702</v>
       </c>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
@@ -9014,10 +9073,10 @@
         <v>44704</v>
       </c>
       <c r="C386" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="D386" s="8" t="s">
         <v>703</v>
-      </c>
-      <c r="D386" s="8" t="s">
-        <v>704</v>
       </c>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
@@ -9030,10 +9089,10 @@
         <v>44704</v>
       </c>
       <c r="C387" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="D387" s="8" t="s">
         <v>705</v>
-      </c>
-      <c r="D387" s="8" t="s">
-        <v>706</v>
       </c>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
@@ -9047,7 +9106,7 @@
         <v>44704</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D388" s="8" t="s">
         <v>443</v>
@@ -9063,10 +9122,10 @@
         <v>44704</v>
       </c>
       <c r="C389" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="D389" s="8" t="s">
         <v>708</v>
-      </c>
-      <c r="D389" s="8" t="s">
-        <v>709</v>
       </c>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
@@ -9080,10 +9139,10 @@
         <v>44704</v>
       </c>
       <c r="C390" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D390" s="8" t="s">
         <v>710</v>
-      </c>
-      <c r="D390" s="8" t="s">
-        <v>711</v>
       </c>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
@@ -9096,7 +9155,7 @@
         <v>44704</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D391" s="8" t="s">
         <v>113</v>
@@ -9113,7 +9172,7 @@
         <v>44705</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D392" s="8" t="s">
         <v>164</v>
@@ -9129,10 +9188,10 @@
         <v>44705</v>
       </c>
       <c r="C393" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D393" s="8" t="s">
         <v>714</v>
-      </c>
-      <c r="D393" s="8" t="s">
-        <v>715</v>
       </c>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
@@ -9146,7 +9205,7 @@
         <v>44705</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D394" s="8" t="s">
         <v>50</v>
@@ -9162,10 +9221,10 @@
         <v>44705</v>
       </c>
       <c r="C395" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="D395" s="8" t="s">
         <v>717</v>
-      </c>
-      <c r="D395" s="8" t="s">
-        <v>718</v>
       </c>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
@@ -9179,10 +9238,10 @@
         <v>44706</v>
       </c>
       <c r="C396" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="D396" s="8" t="s">
         <v>719</v>
-      </c>
-      <c r="D396" s="8" t="s">
-        <v>720</v>
       </c>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
@@ -9195,10 +9254,10 @@
         <v>44706</v>
       </c>
       <c r="C397" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="D397" s="8" t="s">
         <v>721</v>
-      </c>
-      <c r="D397" s="8" t="s">
-        <v>722</v>
       </c>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
@@ -9212,10 +9271,10 @@
         <v>44706</v>
       </c>
       <c r="C398" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="D398" s="8" t="s">
         <v>723</v>
-      </c>
-      <c r="D398" s="8" t="s">
-        <v>724</v>
       </c>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
@@ -9228,7 +9287,7 @@
         <v>44706</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D399" s="8" t="s">
         <v>151</v>
@@ -9245,83 +9304,203 @@
         <v>44706</v>
       </c>
       <c r="C400" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="D400" s="8" t="s">
         <v>726</v>
-      </c>
-      <c r="D400" s="8" t="s">
-        <v>727</v>
       </c>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
     </row>
-    <row r="401" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="17">
+        <v>483</v>
+      </c>
+      <c r="B401" s="19">
+        <v>44604</v>
+      </c>
+      <c r="C401" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="D401" s="15" t="s">
+        <v>739</v>
+      </c>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
       <c r="G401" s="6"/>
     </row>
-    <row r="402" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="17">
+        <v>484</v>
+      </c>
+      <c r="B402" s="19">
+        <v>44613</v>
+      </c>
+      <c r="C402" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="D402" s="15" t="s">
+        <v>737</v>
+      </c>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
     </row>
-    <row r="403" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="17">
+        <v>485</v>
+      </c>
+      <c r="B403" s="19">
+        <v>44614</v>
+      </c>
+      <c r="C403" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="D403" s="15" t="s">
+        <v>735</v>
+      </c>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
       <c r="G403" s="6"/>
     </row>
-    <row r="404" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="17">
+        <v>486</v>
+      </c>
+      <c r="B404" s="19">
+        <v>44616</v>
+      </c>
+      <c r="C404" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="D404" s="15" t="s">
+        <v>733</v>
+      </c>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
     </row>
-    <row r="405" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="17">
+        <v>487</v>
+      </c>
+      <c r="B405" s="19">
+        <v>44617</v>
+      </c>
+      <c r="C405" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="D405" s="15" t="s">
+        <v>731</v>
+      </c>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
       <c r="G405" s="6"/>
     </row>
-    <row r="406" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="17">
+        <v>488</v>
+      </c>
+      <c r="B406" s="19">
+        <v>44617</v>
+      </c>
+      <c r="C406" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D406" s="15" t="s">
+        <v>730</v>
+      </c>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
     </row>
-    <row r="407" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="17">
+        <v>489</v>
+      </c>
+      <c r="B407" s="19">
+        <v>44627</v>
+      </c>
+      <c r="C407" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="D407" s="15" t="s">
+        <v>728</v>
+      </c>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
     </row>
-    <row r="408" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="17">
+        <v>490</v>
+      </c>
+      <c r="B408" s="20">
+        <v>44613</v>
+      </c>
+      <c r="C408" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="D408" s="15" t="s">
+        <v>745</v>
+      </c>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
     </row>
-    <row r="409" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="17">
+        <v>491</v>
+      </c>
+      <c r="B409" s="19">
+        <v>44613</v>
+      </c>
+      <c r="C409" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="D409" s="15" t="s">
+        <v>743</v>
+      </c>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
       <c r="G409" s="6"/>
     </row>
-    <row r="410" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="17">
+        <v>492</v>
+      </c>
+      <c r="B410" s="19">
+        <v>44628</v>
+      </c>
+      <c r="C410" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="D410" s="15" t="s">
+        <v>741</v>
+      </c>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
     </row>
-    <row r="411" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
       <c r="G411" s="6"/>
     </row>
-    <row r="412" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
     </row>
-    <row r="413" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
       <c r="G413" s="6"/>
     </row>
-    <row r="414" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
     </row>
-    <row r="415" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
       <c r="G415" s="6"/>
     </row>
-    <row r="416" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
     </row>
@@ -13619,5 +13798,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="95"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>